--- a/biology/Médecine/Blanche_Wittman/Blanche_Wittman.xlsx
+++ b/biology/Médecine/Blanche_Wittman/Blanche_Wittman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blanche Wittman[1] (1859-1913) est une célèbre patiente de Jean-Martin Charcot, qu'il diagnostique comme étant un cas d'hystérie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blanche Wittman (1859-1913) est une célèbre patiente de Jean-Martin Charcot, qu'il diagnostique comme étant un cas d'hystérie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Postérité littéraire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écrivain suédois Per Olov Enquist, dans son roman Blanche et Marie (2004), invente une biographie fictive de Blanche Wittmann, dans laquelle il imagine qu'elle entra comme assistante au service de Marie Curie et lui prête une liaison avec le Dr Jean-Martin Charcot[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écrivain suédois Per Olov Enquist, dans son roman Blanche et Marie (2004), invente une biographie fictive de Blanche Wittmann, dans laquelle il imagine qu'elle entra comme assistante au service de Marie Curie et lui prête une liaison avec le Dr Jean-Martin Charcot.
 </t>
         </is>
       </c>
